--- a/Org/Semester 3/Pre_Project Phase/DAGoPERT_2016_slim.xlsx
+++ b/Org/Semester 3/Pre_Project Phase/DAGoPERT_2016_slim.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marce\OneDrive\Studium\FHTechnikum\3. Semester\9_InnoLab\3_InnoLab3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marce\OneDrive\Studium\FHTechnikum\3. Semester\9_InnoLab\LocalRep\Org\Semester 3\Pre_Project Phase\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -617,7 +617,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -644,7 +644,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1144,7 +1156,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1566,9 +1578,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1601,6 +1610,18 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1861,11 +1882,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2064545360"/>
-        <c:axId val="2064542640"/>
+        <c:axId val="-1397063984"/>
+        <c:axId val="-1397062896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2064545360"/>
+        <c:axId val="-1397063984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1939,12 +1960,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2064542640"/>
+        <c:crossAx val="-1397062896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2064542640"/>
+        <c:axId val="-1397062896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2030,7 +2051,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2064545360"/>
+        <c:crossAx val="-1397063984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2110,7 +2131,7 @@
         <xdr:cNvPr id="9218" name="Text 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002240000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002240000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2453,7 +2474,7 @@
         <xdr:cNvPr id="6162" name="Chart 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000012180000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000012180000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3096,7 +3117,7 @@
   <dimension ref="A1:Q358"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3122,27 +3143,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="127" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="156" t="s">
+      <c r="A1" s="155" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="157"/>
-      <c r="H1" s="157"/>
-      <c r="I1" s="157"/>
-      <c r="J1" s="157"/>
-      <c r="K1" s="157"/>
-      <c r="L1" s="157"/>
-      <c r="M1" s="157"/>
-      <c r="N1" s="158"/>
-      <c r="O1" s="156" t="s">
+      <c r="B1" s="156"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
+      <c r="F1" s="156"/>
+      <c r="G1" s="156"/>
+      <c r="H1" s="156"/>
+      <c r="I1" s="156"/>
+      <c r="J1" s="156"/>
+      <c r="K1" s="156"/>
+      <c r="L1" s="156"/>
+      <c r="M1" s="156"/>
+      <c r="N1" s="157"/>
+      <c r="O1" s="155" t="s">
         <v>81</v>
       </c>
-      <c r="P1" s="157"/>
-      <c r="Q1" s="158"/>
+      <c r="P1" s="156"/>
+      <c r="Q1" s="157"/>
     </row>
     <row r="2" spans="1:17" s="53" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A2" s="123" t="s">
@@ -3241,13 +3262,13 @@
       <c r="A4" s="154" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="155" t="s">
+      <c r="B4" s="166" t="s">
         <v>104</v>
       </c>
-      <c r="C4" s="155" t="s">
+      <c r="C4" s="166" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="155" t="s">
+      <c r="D4" s="166" t="s">
         <v>105</v>
       </c>
       <c r="E4" s="47">
@@ -3299,13 +3320,13 @@
       <c r="A5" s="154" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="155" t="s">
+      <c r="B5" s="166" t="s">
         <v>104</v>
       </c>
-      <c r="C5" s="155" t="s">
+      <c r="C5" s="166" t="s">
         <v>118</v>
       </c>
-      <c r="D5" s="155" t="s">
+      <c r="D5" s="166" t="s">
         <v>106</v>
       </c>
       <c r="E5" s="47">
@@ -3357,13 +3378,13 @@
       <c r="A6" s="154" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="155" t="s">
+      <c r="B6" s="166" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="155" t="s">
+      <c r="C6" s="166" t="s">
         <v>109</v>
       </c>
-      <c r="D6" s="155" t="s">
+      <c r="D6" s="166" t="s">
         <v>107</v>
       </c>
       <c r="E6" s="47">
@@ -3415,13 +3436,13 @@
       <c r="A7" s="154" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="155" t="s">
+      <c r="B7" s="166" t="s">
         <v>104</v>
       </c>
-      <c r="C7" s="155" t="s">
+      <c r="C7" s="166" t="s">
         <v>110</v>
       </c>
-      <c r="D7" s="155" t="s">
+      <c r="D7" s="166" t="s">
         <v>111</v>
       </c>
       <c r="E7" s="47">
@@ -3465,7 +3486,7 @@
         <v>33</v>
       </c>
       <c r="Q7" s="140" t="str">
-        <f t="shared" ref="Q7:Q17" si="10">IF(OR(O7="",P7=""),"",INDEX(businessvalue_kalibrierung, MATCH(O7,businessvalue_kalibrierung_aufwand,0),MATCH(P7,businessvalue_kalibrierung_businesswert,0)))</f>
+        <f t="shared" ref="Q7:Q16" si="10">IF(OR(O7="",P7=""),"",INDEX(businessvalue_kalibrierung, MATCH(O7,businessvalue_kalibrierung_aufwand,0),MATCH(P7,businessvalue_kalibrierung_businesswert,0)))</f>
         <v>L</v>
       </c>
     </row>
@@ -3473,13 +3494,13 @@
       <c r="A8" s="154" t="s">
         <v>95</v>
       </c>
-      <c r="B8" s="155" t="s">
+      <c r="B8" s="166" t="s">
         <v>104</v>
       </c>
-      <c r="C8" s="155" t="s">
+      <c r="C8" s="166" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="155" t="s">
+      <c r="D8" s="166" t="s">
         <v>113</v>
       </c>
       <c r="E8" s="47">
@@ -3531,13 +3552,13 @@
       <c r="A9" s="154" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="155" t="s">
+      <c r="B9" s="166" t="s">
         <v>114</v>
       </c>
-      <c r="C9" s="155" t="s">
+      <c r="C9" s="166" t="s">
         <v>115</v>
       </c>
-      <c r="D9" s="155"/>
+      <c r="D9" s="166"/>
       <c r="E9" s="47">
         <v>15</v>
       </c>
@@ -3587,13 +3608,13 @@
       <c r="A10" s="154" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="155" t="s">
+      <c r="B10" s="165" t="s">
         <v>114</v>
       </c>
-      <c r="C10" s="155" t="s">
+      <c r="C10" s="165" t="s">
         <v>129</v>
       </c>
-      <c r="D10" s="155"/>
+      <c r="D10" s="165"/>
       <c r="E10" s="47">
         <v>5</v>
       </c>
@@ -3645,13 +3666,13 @@
       <c r="A11" s="154" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="155" t="s">
+      <c r="B11" s="168" t="s">
         <v>114</v>
       </c>
-      <c r="C11" s="155" t="s">
+      <c r="C11" s="168" t="s">
         <v>116</v>
       </c>
-      <c r="D11" s="155"/>
+      <c r="D11" s="168"/>
       <c r="E11" s="47">
         <v>8</v>
       </c>
@@ -3701,13 +3722,13 @@
       <c r="A12" s="154" t="s">
         <v>98</v>
       </c>
-      <c r="B12" s="155" t="s">
+      <c r="B12" s="165" t="s">
         <v>114</v>
       </c>
-      <c r="C12" s="155" t="s">
+      <c r="C12" s="165" t="s">
         <v>130</v>
       </c>
-      <c r="D12" s="155"/>
+      <c r="D12" s="165"/>
       <c r="E12" s="47">
         <v>4</v>
       </c>
@@ -3757,13 +3778,13 @@
       <c r="A13" s="154" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="155" t="s">
+      <c r="B13" s="165" t="s">
         <v>117</v>
       </c>
-      <c r="C13" s="155" t="s">
+      <c r="C13" s="165" t="s">
         <v>131</v>
       </c>
-      <c r="D13" s="155"/>
+      <c r="D13" s="165"/>
       <c r="E13" s="47">
         <v>6</v>
       </c>
@@ -3813,13 +3834,13 @@
       <c r="A14" s="154" t="s">
         <v>100</v>
       </c>
-      <c r="B14" s="155" t="s">
+      <c r="B14" s="166" t="s">
         <v>114</v>
       </c>
-      <c r="C14" s="155" t="s">
+      <c r="C14" s="166" t="s">
         <v>136</v>
       </c>
-      <c r="D14" s="155"/>
+      <c r="D14" s="166"/>
       <c r="E14" s="47">
         <v>3</v>
       </c>
@@ -3869,13 +3890,13 @@
       <c r="A15" s="154" t="s">
         <v>101</v>
       </c>
-      <c r="B15" s="155" t="s">
+      <c r="B15" s="168" t="s">
         <v>114</v>
       </c>
-      <c r="C15" s="155" t="s">
+      <c r="C15" s="168" t="s">
         <v>135</v>
       </c>
-      <c r="D15" s="155"/>
+      <c r="D15" s="168"/>
       <c r="E15" s="47">
         <v>21</v>
       </c>
@@ -3925,13 +3946,13 @@
       <c r="A16" s="154" t="s">
         <v>102</v>
       </c>
-      <c r="B16" s="155" t="s">
+      <c r="B16" s="165" t="s">
         <v>114</v>
       </c>
-      <c r="C16" s="155" t="s">
+      <c r="C16" s="165" t="s">
         <v>134</v>
       </c>
-      <c r="D16" s="155"/>
+      <c r="D16" s="165"/>
       <c r="E16" s="47">
         <v>6</v>
       </c>
@@ -3981,13 +4002,13 @@
       <c r="A17" s="154" t="s">
         <v>103</v>
       </c>
-      <c r="B17" s="155" t="s">
+      <c r="B17" s="165" t="s">
         <v>124</v>
       </c>
-      <c r="C17" s="155" t="s">
+      <c r="C17" s="165" t="s">
         <v>127</v>
       </c>
-      <c r="D17" s="155"/>
+      <c r="D17" s="165"/>
       <c r="E17" s="47">
         <v>8</v>
       </c>
@@ -4037,13 +4058,13 @@
       <c r="A18" s="154" t="s">
         <v>119</v>
       </c>
-      <c r="B18" s="155" t="s">
+      <c r="B18" s="166" t="s">
         <v>125</v>
       </c>
-      <c r="C18" s="155" t="s">
+      <c r="C18" s="166" t="s">
         <v>126</v>
       </c>
-      <c r="D18" s="155"/>
+      <c r="D18" s="166"/>
       <c r="E18" s="47">
         <v>7</v>
       </c>
@@ -4093,13 +4114,13 @@
       <c r="A19" s="154" t="s">
         <v>120</v>
       </c>
-      <c r="B19" s="155" t="s">
+      <c r="B19" s="167" t="s">
         <v>132</v>
       </c>
-      <c r="C19" s="155" t="s">
+      <c r="C19" s="167" t="s">
         <v>133</v>
       </c>
-      <c r="D19" s="155"/>
+      <c r="D19" s="167"/>
       <c r="E19" s="47">
         <v>6</v>
       </c>
@@ -4220,7 +4241,7 @@
       </c>
       <c r="P21" s="47"/>
       <c r="Q21" s="140" t="str">
-        <f t="shared" ref="Q18:Q81" si="11">IF(OR(O20="",P20=""),"",INDEX(businessvalue_kalibrierung, MATCH(O20,businessvalue_kalibrierung_aufwand,0),MATCH(P20,businessvalue_kalibrierung_businesswert,0)))</f>
+        <f t="shared" ref="Q21:Q81" si="11">IF(OR(O20="",P20=""),"",INDEX(businessvalue_kalibrierung, MATCH(O20,businessvalue_kalibrierung_aufwand,0),MATCH(P20,businessvalue_kalibrierung_businesswert,0)))</f>
         <v/>
       </c>
     </row>
@@ -17415,20 +17436,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="158" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="161"/>
+      <c r="B1" s="159"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="160"/>
     </row>
     <row r="2" spans="1:12" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="162"/>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="164"/>
+      <c r="A2" s="161"/>
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="163"/>
       <c r="L2" s="50"/>
     </row>
     <row r="3" spans="1:12" s="8" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17807,13 +17828,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="165" t="s">
+      <c r="B1" s="164" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
+      <c r="F1" s="164"/>
     </row>
     <row r="2" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="17" t="s">
@@ -18868,6 +18889,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100CA39AF47FDE84445B2A1A204EB607015" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="02d257b5fc73ffec8ca48af1d6f0ac4f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="025d22c0-f634-4698-b91b-a929f7363a0d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9eef9cb57a7ecff21c60d28da668db25" ns2:_="">
     <xsd:import namespace="025d22c0-f634-4698-b91b-a929f7363a0d"/>
@@ -19045,22 +19081,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90C8B9A1-CF49-4753-98D3-CDFF9713AD0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F155915-390F-4DB1-8323-6D9C71B4FD2C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68C4F521-E81F-4050-A011-79AAC4B11AEB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19076,27 +19120,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F155915-390F-4DB1-8323-6D9C71B4FD2C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90C8B9A1-CF49-4753-98D3-CDFF9713AD0B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Org/Semester 3/Pre_Project Phase/DAGoPERT_2016_slim.xlsx
+++ b/Org/Semester 3/Pre_Project Phase/DAGoPERT_2016_slim.xlsx
@@ -1578,6 +1578,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1610,18 +1622,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1882,11 +1882,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1397063984"/>
-        <c:axId val="-1397062896"/>
+        <c:axId val="-778044848"/>
+        <c:axId val="-778042672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1397063984"/>
+        <c:axId val="-778044848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1960,12 +1960,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1397062896"/>
+        <c:crossAx val="-778042672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1397062896"/>
+        <c:axId val="-778042672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2051,7 +2051,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1397063984"/>
+        <c:crossAx val="-778044848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2131,7 +2131,7 @@
         <xdr:cNvPr id="9218" name="Text 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002240000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002240000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2474,7 +2474,7 @@
         <xdr:cNvPr id="6162" name="Chart 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000012180000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000012180000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3116,8 +3116,8 @@
   </sheetPr>
   <dimension ref="A1:Q358"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3143,27 +3143,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="127" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="159" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="156"/>
-      <c r="C1" s="156"/>
-      <c r="D1" s="156"/>
-      <c r="E1" s="156"/>
-      <c r="F1" s="156"/>
-      <c r="G1" s="156"/>
-      <c r="H1" s="156"/>
-      <c r="I1" s="156"/>
-      <c r="J1" s="156"/>
-      <c r="K1" s="156"/>
-      <c r="L1" s="156"/>
-      <c r="M1" s="156"/>
-      <c r="N1" s="157"/>
-      <c r="O1" s="155" t="s">
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="160"/>
+      <c r="J1" s="160"/>
+      <c r="K1" s="160"/>
+      <c r="L1" s="160"/>
+      <c r="M1" s="160"/>
+      <c r="N1" s="161"/>
+      <c r="O1" s="159" t="s">
         <v>81</v>
       </c>
-      <c r="P1" s="156"/>
-      <c r="Q1" s="157"/>
+      <c r="P1" s="160"/>
+      <c r="Q1" s="161"/>
     </row>
     <row r="2" spans="1:17" s="53" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A2" s="123" t="s">
@@ -3262,13 +3262,13 @@
       <c r="A4" s="154" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="166" t="s">
+      <c r="B4" s="156" t="s">
         <v>104</v>
       </c>
-      <c r="C4" s="166" t="s">
+      <c r="C4" s="156" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="166" t="s">
+      <c r="D4" s="156" t="s">
         <v>105</v>
       </c>
       <c r="E4" s="47">
@@ -3320,13 +3320,13 @@
       <c r="A5" s="154" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="166" t="s">
+      <c r="B5" s="156" t="s">
         <v>104</v>
       </c>
-      <c r="C5" s="166" t="s">
+      <c r="C5" s="156" t="s">
         <v>118</v>
       </c>
-      <c r="D5" s="166" t="s">
+      <c r="D5" s="156" t="s">
         <v>106</v>
       </c>
       <c r="E5" s="47">
@@ -3378,13 +3378,13 @@
       <c r="A6" s="154" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="166" t="s">
+      <c r="B6" s="156" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="166" t="s">
+      <c r="C6" s="156" t="s">
         <v>109</v>
       </c>
-      <c r="D6" s="166" t="s">
+      <c r="D6" s="156" t="s">
         <v>107</v>
       </c>
       <c r="E6" s="47">
@@ -3436,13 +3436,13 @@
       <c r="A7" s="154" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="166" t="s">
+      <c r="B7" s="156" t="s">
         <v>104</v>
       </c>
-      <c r="C7" s="166" t="s">
+      <c r="C7" s="156" t="s">
         <v>110</v>
       </c>
-      <c r="D7" s="166" t="s">
+      <c r="D7" s="156" t="s">
         <v>111</v>
       </c>
       <c r="E7" s="47">
@@ -3494,13 +3494,13 @@
       <c r="A8" s="154" t="s">
         <v>95</v>
       </c>
-      <c r="B8" s="166" t="s">
+      <c r="B8" s="156" t="s">
         <v>104</v>
       </c>
-      <c r="C8" s="166" t="s">
+      <c r="C8" s="156" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="166" t="s">
+      <c r="D8" s="156" t="s">
         <v>113</v>
       </c>
       <c r="E8" s="47">
@@ -3552,13 +3552,13 @@
       <c r="A9" s="154" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="166" t="s">
+      <c r="B9" s="156" t="s">
         <v>114</v>
       </c>
-      <c r="C9" s="166" t="s">
+      <c r="C9" s="156" t="s">
         <v>115</v>
       </c>
-      <c r="D9" s="166"/>
+      <c r="D9" s="156"/>
       <c r="E9" s="47">
         <v>15</v>
       </c>
@@ -3608,13 +3608,13 @@
       <c r="A10" s="154" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="165" t="s">
+      <c r="B10" s="158" t="s">
         <v>114</v>
       </c>
-      <c r="C10" s="165" t="s">
+      <c r="C10" s="158" t="s">
         <v>129</v>
       </c>
-      <c r="D10" s="165"/>
+      <c r="D10" s="158"/>
       <c r="E10" s="47">
         <v>5</v>
       </c>
@@ -3666,13 +3666,13 @@
       <c r="A11" s="154" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="168" t="s">
+      <c r="B11" s="156" t="s">
         <v>114</v>
       </c>
-      <c r="C11" s="168" t="s">
+      <c r="C11" s="156" t="s">
         <v>116</v>
       </c>
-      <c r="D11" s="168"/>
+      <c r="D11" s="156"/>
       <c r="E11" s="47">
         <v>8</v>
       </c>
@@ -3722,13 +3722,13 @@
       <c r="A12" s="154" t="s">
         <v>98</v>
       </c>
-      <c r="B12" s="165" t="s">
+      <c r="B12" s="158" t="s">
         <v>114</v>
       </c>
-      <c r="C12" s="165" t="s">
+      <c r="C12" s="158" t="s">
         <v>130</v>
       </c>
-      <c r="D12" s="165"/>
+      <c r="D12" s="158"/>
       <c r="E12" s="47">
         <v>4</v>
       </c>
@@ -3778,13 +3778,13 @@
       <c r="A13" s="154" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="165" t="s">
+      <c r="B13" s="155" t="s">
         <v>117</v>
       </c>
-      <c r="C13" s="165" t="s">
+      <c r="C13" s="155" t="s">
         <v>131</v>
       </c>
-      <c r="D13" s="165"/>
+      <c r="D13" s="155"/>
       <c r="E13" s="47">
         <v>6</v>
       </c>
@@ -3834,13 +3834,13 @@
       <c r="A14" s="154" t="s">
         <v>100</v>
       </c>
-      <c r="B14" s="166" t="s">
+      <c r="B14" s="156" t="s">
         <v>114</v>
       </c>
-      <c r="C14" s="166" t="s">
+      <c r="C14" s="156" t="s">
         <v>136</v>
       </c>
-      <c r="D14" s="166"/>
+      <c r="D14" s="156"/>
       <c r="E14" s="47">
         <v>3</v>
       </c>
@@ -3890,13 +3890,13 @@
       <c r="A15" s="154" t="s">
         <v>101</v>
       </c>
-      <c r="B15" s="168" t="s">
+      <c r="B15" s="158" t="s">
         <v>114</v>
       </c>
-      <c r="C15" s="168" t="s">
+      <c r="C15" s="158" t="s">
         <v>135</v>
       </c>
-      <c r="D15" s="168"/>
+      <c r="D15" s="158"/>
       <c r="E15" s="47">
         <v>21</v>
       </c>
@@ -3946,13 +3946,13 @@
       <c r="A16" s="154" t="s">
         <v>102</v>
       </c>
-      <c r="B16" s="165" t="s">
+      <c r="B16" s="156" t="s">
         <v>114</v>
       </c>
-      <c r="C16" s="165" t="s">
+      <c r="C16" s="156" t="s">
         <v>134</v>
       </c>
-      <c r="D16" s="165"/>
+      <c r="D16" s="156"/>
       <c r="E16" s="47">
         <v>6</v>
       </c>
@@ -4002,13 +4002,13 @@
       <c r="A17" s="154" t="s">
         <v>103</v>
       </c>
-      <c r="B17" s="165" t="s">
+      <c r="B17" s="155" t="s">
         <v>124</v>
       </c>
-      <c r="C17" s="165" t="s">
+      <c r="C17" s="155" t="s">
         <v>127</v>
       </c>
-      <c r="D17" s="165"/>
+      <c r="D17" s="155"/>
       <c r="E17" s="47">
         <v>8</v>
       </c>
@@ -4058,13 +4058,13 @@
       <c r="A18" s="154" t="s">
         <v>119</v>
       </c>
-      <c r="B18" s="166" t="s">
+      <c r="B18" s="156" t="s">
         <v>125</v>
       </c>
-      <c r="C18" s="166" t="s">
+      <c r="C18" s="156" t="s">
         <v>126</v>
       </c>
-      <c r="D18" s="166"/>
+      <c r="D18" s="156"/>
       <c r="E18" s="47">
         <v>7</v>
       </c>
@@ -4114,13 +4114,13 @@
       <c r="A19" s="154" t="s">
         <v>120</v>
       </c>
-      <c r="B19" s="167" t="s">
+      <c r="B19" s="157" t="s">
         <v>132</v>
       </c>
-      <c r="C19" s="167" t="s">
+      <c r="C19" s="157" t="s">
         <v>133</v>
       </c>
-      <c r="D19" s="167"/>
+      <c r="D19" s="157"/>
       <c r="E19" s="47">
         <v>6</v>
       </c>
@@ -17436,20 +17436,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="162" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="160"/>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="164"/>
     </row>
     <row r="2" spans="1:12" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="161"/>
-      <c r="B2" s="162"/>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="163"/>
+      <c r="A2" s="165"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="167"/>
       <c r="L2" s="50"/>
     </row>
     <row r="3" spans="1:12" s="8" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17828,13 +17828,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="164" t="s">
+      <c r="B1" s="168" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="164"/>
-      <c r="F1" s="164"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
     </row>
     <row r="2" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="17" t="s">
@@ -18889,21 +18889,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100CA39AF47FDE84445B2A1A204EB607015" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="02d257b5fc73ffec8ca48af1d6f0ac4f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="025d22c0-f634-4698-b91b-a929f7363a0d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9eef9cb57a7ecff21c60d28da668db25" ns2:_="">
     <xsd:import namespace="025d22c0-f634-4698-b91b-a929f7363a0d"/>
@@ -19081,30 +19066,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90C8B9A1-CF49-4753-98D3-CDFF9713AD0B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F155915-390F-4DB1-8323-6D9C71B4FD2C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68C4F521-E81F-4050-A011-79AAC4B11AEB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19120,4 +19097,27 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F155915-390F-4DB1-8323-6D9C71B4FD2C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90C8B9A1-CF49-4753-98D3-CDFF9713AD0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>